--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.590723693016302</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N2">
-        <v>0.590723693016302</v>
+        <v>2.029049</v>
       </c>
       <c r="O2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q2">
-        <v>7.951483150505283</v>
+        <v>12.73227751510245</v>
       </c>
       <c r="R2">
-        <v>7.951483150505283</v>
+        <v>114.590497635922</v>
       </c>
       <c r="S2">
-        <v>0.007006588160502746</v>
+        <v>0.008413023353057389</v>
       </c>
       <c r="T2">
-        <v>0.007006588160502746</v>
+        <v>0.008413023353057389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40237919234935</v>
+        <v>3.724503</v>
       </c>
       <c r="N3">
-        <v>3.40237919234935</v>
+        <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.7313162078950657</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P3">
-        <v>0.7313162078950657</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q3">
-        <v>45.7979951361948</v>
+        <v>70.11374166197801</v>
       </c>
       <c r="R3">
-        <v>45.7979951361948</v>
+        <v>631.0236749578021</v>
       </c>
       <c r="S3">
-        <v>0.04035570275661512</v>
+        <v>0.04632859637820325</v>
       </c>
       <c r="T3">
-        <v>0.04035570275661512</v>
+        <v>0.04632859637820325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.659302128523424</v>
+        <v>0.31493</v>
       </c>
       <c r="N4">
-        <v>0.659302128523424</v>
+        <v>0.94479</v>
       </c>
       <c r="O4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q4">
-        <v>8.874588624129556</v>
+        <v>5.928554940513333</v>
       </c>
       <c r="R4">
-        <v>8.874588624129556</v>
+        <v>53.35699446462</v>
       </c>
       <c r="S4">
-        <v>0.007819998660150236</v>
+        <v>0.003917372292997897</v>
       </c>
       <c r="T4">
-        <v>0.007819998660150236</v>
+        <v>0.003917372292997897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>120.796654575229</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>120.796654575229</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.4952116691091795</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.4952116691091795</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.590723693016302</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N5">
-        <v>0.590723693016302</v>
+        <v>2.462372</v>
       </c>
       <c r="O5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q5">
-        <v>71.35744589469385</v>
+        <v>15.45137828086844</v>
       </c>
       <c r="R5">
-        <v>71.35744589469385</v>
+        <v>139.062404527816</v>
       </c>
       <c r="S5">
-        <v>0.06287785889827435</v>
+        <v>0.01020970569952457</v>
       </c>
       <c r="T5">
-        <v>0.06287785889827435</v>
+        <v>0.01020970569952457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.40237919234935</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N6">
-        <v>3.40237919234935</v>
+        <v>2.029049</v>
       </c>
       <c r="O6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q6">
-        <v>410.9960240321711</v>
+        <v>82.39351992268591</v>
       </c>
       <c r="R6">
-        <v>410.9960240321711</v>
+        <v>741.5416793041732</v>
       </c>
       <c r="S6">
-        <v>0.3621563199583112</v>
+        <v>0.05444262477219328</v>
       </c>
       <c r="T6">
-        <v>0.3621563199583112</v>
+        <v>0.05444262477219328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.659302128523424</v>
+        <v>3.724503</v>
       </c>
       <c r="N7">
-        <v>0.659302128523424</v>
+        <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.1417121094477316</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P7">
-        <v>0.1417121094477316</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q7">
-        <v>79.64149147995728</v>
+        <v>453.7222789581771</v>
       </c>
       <c r="R7">
-        <v>79.64149147995728</v>
+        <v>4083.500510623594</v>
       </c>
       <c r="S7">
-        <v>0.07017749025259387</v>
+        <v>0.2998030889720872</v>
       </c>
       <c r="T7">
-        <v>0.07017749025259387</v>
+        <v>0.2998030889720872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.8347098435864</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>73.8347098435864</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.590723693016302</v>
+        <v>0.31493</v>
       </c>
       <c r="N8">
-        <v>0.590723693016302</v>
+        <v>0.94479</v>
       </c>
       <c r="O8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q8">
-        <v>43.61591247159046</v>
+        <v>38.36505362253667</v>
       </c>
       <c r="R8">
-        <v>43.61591247159046</v>
+        <v>345.28548260283</v>
       </c>
       <c r="S8">
-        <v>0.03843292253138338</v>
+        <v>0.02535022439503456</v>
       </c>
       <c r="T8">
-        <v>0.03843292253138338</v>
+        <v>0.02535022439503456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.8347098435864</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>73.8347098435864</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.3026889281694751</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40237919234935</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N9">
-        <v>3.40237919234935</v>
+        <v>2.462372</v>
       </c>
       <c r="O9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q9">
-        <v>251.2136804449701</v>
+        <v>99.98945143220489</v>
       </c>
       <c r="R9">
-        <v>251.2136804449701</v>
+        <v>899.905062889844</v>
       </c>
       <c r="S9">
-        <v>0.2213613191207224</v>
+        <v>0.06606937281729276</v>
       </c>
       <c r="T9">
-        <v>0.2213613191207224</v>
+        <v>0.06606937281729278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.659302128523424</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N10">
-        <v>0.659302128523424</v>
+        <v>2.029049</v>
       </c>
       <c r="O10">
-        <v>0.1417121094477316</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P10">
-        <v>0.1417121094477316</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q10">
-        <v>48.67938135878591</v>
+        <v>59.29799999022168</v>
       </c>
       <c r="R10">
-        <v>48.67938135878591</v>
+        <v>533.681999911995</v>
       </c>
       <c r="S10">
-        <v>0.04289468651736921</v>
+        <v>0.03918194982127814</v>
       </c>
       <c r="T10">
-        <v>0.04289468651736921</v>
+        <v>0.03918194982127813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.590723693016302</v>
+        <v>3.724503</v>
       </c>
       <c r="N11">
-        <v>0.590723693016302</v>
+        <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.1269716826572026</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P11">
-        <v>0.1269716826572026</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q11">
-        <v>21.16999781334269</v>
+        <v>326.5405303532551</v>
       </c>
       <c r="R11">
-        <v>21.16999781334269</v>
+        <v>2938.864773179295</v>
       </c>
       <c r="S11">
-        <v>0.01865431306704211</v>
+        <v>0.2157660406257314</v>
       </c>
       <c r="T11">
-        <v>0.01865431306704211</v>
+        <v>0.2157660406257314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.40237919234935</v>
+        <v>0.31493</v>
       </c>
       <c r="N12">
-        <v>3.40237919234935</v>
+        <v>0.94479</v>
       </c>
       <c r="O12">
-        <v>0.7313162078950657</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P12">
-        <v>0.7313162078950657</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q12">
-        <v>121.9324041235141</v>
+        <v>27.61104212405</v>
       </c>
       <c r="R12">
-        <v>121.9324041235141</v>
+        <v>248.49937911645</v>
       </c>
       <c r="S12">
-        <v>0.1074428660594169</v>
+        <v>0.01824436687908738</v>
       </c>
       <c r="T12">
-        <v>0.1074428660594169</v>
+        <v>0.01824436687908738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.8373941381059</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>35.8373941381059</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.1469171131440773</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.659302128523424</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N13">
-        <v>0.659302128523424</v>
+        <v>2.462372</v>
       </c>
       <c r="O13">
-        <v>0.1417121094477316</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P13">
-        <v>0.1417121094477316</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q13">
-        <v>23.62767023598609</v>
+        <v>71.96166028120666</v>
       </c>
       <c r="R13">
-        <v>23.62767023598609</v>
+        <v>647.65494253086</v>
       </c>
       <c r="S13">
-        <v>0.02081993401761825</v>
+        <v>0.04754963342202197</v>
       </c>
       <c r="T13">
-        <v>0.02081993401761825</v>
+        <v>0.04754963342202197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H14">
+        <v>135.080009</v>
+      </c>
+      <c r="I14">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J14">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6763496666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.029049</v>
+      </c>
+      <c r="O14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="P14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="Q14">
+        <v>30.45377302016011</v>
+      </c>
+      <c r="R14">
+        <v>274.083957181441</v>
+      </c>
+      <c r="S14">
+        <v>0.02012273949443951</v>
+      </c>
+      <c r="T14">
+        <v>0.02012273949443951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H15">
+        <v>135.080009</v>
+      </c>
+      <c r="I15">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J15">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.724503</v>
+      </c>
+      <c r="N15">
+        <v>11.173509</v>
+      </c>
+      <c r="O15">
+        <v>0.672709052289864</v>
+      </c>
+      <c r="P15">
+        <v>0.6727090522898641</v>
+      </c>
+      <c r="Q15">
+        <v>167.701966253509</v>
+      </c>
+      <c r="R15">
+        <v>1509.317696281581</v>
+      </c>
+      <c r="S15">
+        <v>0.1108113263138422</v>
+      </c>
+      <c r="T15">
+        <v>0.1108113263138422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H16">
+        <v>135.080009</v>
+      </c>
+      <c r="I16">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J16">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.31493</v>
+      </c>
+      <c r="N16">
+        <v>0.94479</v>
+      </c>
+      <c r="O16">
+        <v>0.05688175357561716</v>
+      </c>
+      <c r="P16">
+        <v>0.05688175357561717</v>
+      </c>
+      <c r="Q16">
+        <v>14.18024907812333</v>
+      </c>
+      <c r="R16">
+        <v>127.62224170311</v>
+      </c>
+      <c r="S16">
+        <v>0.009369790008497331</v>
+      </c>
+      <c r="T16">
+        <v>0.009369790008497331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>45.02666966666666</v>
+      </c>
+      <c r="H17">
+        <v>135.080009</v>
+      </c>
+      <c r="I17">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="J17">
+        <v>0.1647240005714903</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8207906666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.462372</v>
+      </c>
+      <c r="O17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="P17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="Q17">
+        <v>36.95747021348311</v>
+      </c>
+      <c r="R17">
+        <v>332.6172319213479</v>
+      </c>
+      <c r="S17">
+        <v>0.02442014475471119</v>
+      </c>
+      <c r="T17">
+        <v>0.02442014475471119</v>
       </c>
     </row>
   </sheetData>
